--- a/(development)/personal/mamy.xlsx
+++ b/(development)/personal/mamy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC90A0-EAC2-4949-AA7E-19462A0D7F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41742EE-B9EB-4FA8-83EC-DB6F1B4F9A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">janvier </t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Basia USA</t>
+  </si>
+  <si>
+    <t>slub Basi</t>
   </si>
 </sst>
 </file>
@@ -431,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +575,12 @@
       <c r="A11">
         <v>2015</v>
       </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
